--- a/stone_result.xlsx
+++ b/stone_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlffl\Documents\GitHub\LoFAGO\savefiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlffl\Documents\GitHub\LoFAGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86164F43-6579-4805-A7B7-6A09B64773A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170F673-8143-4168-A2E6-05DE2E3643AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="73680" yWindow="12315" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -151,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -163,67 +163,7 @@
     <cellStyle name="경고문" xfId="1" builtinId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -563,7 +503,7 @@
   <dimension ref="A1:T1332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -711,18 +651,18 @@
         <v>1100</v>
       </c>
       <c r="O6" s="6">
-        <f>N6/$L$4</f>
+        <f t="shared" ref="O6:O30" si="0">N6/$L$4</f>
         <v>1.1E-4</v>
       </c>
       <c r="P6" s="1">
         <v>906</v>
       </c>
       <c r="Q6" s="6">
-        <f>P6/$L$4</f>
+        <f t="shared" ref="Q6:Q30" si="1">P6/$L$4</f>
         <v>9.0600000000000007E-5</v>
       </c>
       <c r="R6">
-        <f>(N6+P6)/(2*$L$4)</f>
+        <f t="shared" ref="R6:R30" si="2">(N6+P6)/(2*$L$4)</f>
         <v>1.003E-4</v>
       </c>
       <c r="S6">
@@ -760,18 +700,18 @@
         <v>779</v>
       </c>
       <c r="O7" s="6">
-        <f>N7/$L$4</f>
+        <f t="shared" si="0"/>
         <v>7.7899999999999996E-5</v>
       </c>
       <c r="P7" s="1">
         <v>742</v>
       </c>
       <c r="Q7" s="6">
-        <f>P7/$L$4</f>
+        <f t="shared" si="1"/>
         <v>7.4200000000000001E-5</v>
       </c>
       <c r="R7">
-        <f>(N7+P7)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>7.6050000000000005E-5</v>
       </c>
       <c r="S7">
@@ -809,26 +749,26 @@
         <v>568</v>
       </c>
       <c r="O8" s="6">
-        <f>N8/$L$4</f>
+        <f t="shared" si="0"/>
         <v>5.6799999999999998E-5</v>
       </c>
       <c r="P8" s="1">
         <v>488</v>
       </c>
       <c r="Q8" s="6">
-        <f>P8/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.88E-5</v>
       </c>
       <c r="R8">
-        <f>(N8+P8)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>5.2800000000000003E-5</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S9" si="0">(N8-P8)/SQRT(R8*(1-R8)*(1/5000000))/10000000</f>
+        <f t="shared" ref="S8:S9" si="3">(N8-P8)/SQRT(R8*(1-R8)*(1/5000000))/10000000</f>
         <v>2.4618948144677</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" ref="T8:T9" si="1">P8/N8</f>
+        <f t="shared" ref="T8:T9" si="4">P8/N8</f>
         <v>0.85915492957746475</v>
       </c>
     </row>
@@ -858,26 +798,26 @@
         <v>430</v>
       </c>
       <c r="O9" s="6">
-        <f>N9/$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="P9" s="1">
         <v>367</v>
       </c>
       <c r="Q9" s="6">
-        <f>P9/$L$4</f>
+        <f t="shared" si="1"/>
         <v>3.6699999999999998E-5</v>
       </c>
       <c r="R9">
-        <f>(N9+P9)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>3.985E-5</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2316189584245536</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.85348837209302331</v>
       </c>
     </row>
@@ -907,18 +847,18 @@
         <v>5695</v>
       </c>
       <c r="O10" s="6">
-        <f>N10/$L$4</f>
+        <f t="shared" si="0"/>
         <v>5.6950000000000002E-4</v>
       </c>
       <c r="P10">
         <v>4226</v>
       </c>
       <c r="Q10" s="6">
-        <f>P10/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.2260000000000003E-4</v>
       </c>
       <c r="R10">
-        <f>(N10+P10)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>4.9605000000000005E-4</v>
       </c>
       <c r="S10">
@@ -956,18 +896,18 @@
         <v>5592</v>
       </c>
       <c r="O11" s="6">
-        <f>N11/$L$4</f>
+        <f t="shared" si="0"/>
         <v>5.5920000000000004E-4</v>
       </c>
       <c r="P11">
         <v>4457</v>
       </c>
       <c r="Q11" s="6">
-        <f>P11/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.4569999999999999E-4</v>
       </c>
       <c r="R11">
-        <f>(N11+P11)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>5.0244999999999999E-4</v>
       </c>
       <c r="S11">
@@ -1005,18 +945,18 @@
         <v>4126</v>
       </c>
       <c r="O12" s="6">
-        <f>N12/$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.126E-4</v>
       </c>
       <c r="P12">
         <v>4053</v>
       </c>
       <c r="Q12" s="6">
-        <f>P12/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.0529999999999999E-4</v>
       </c>
       <c r="R12">
-        <f>(N12+P12)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>4.0894999999999999E-4</v>
       </c>
       <c r="S12">
@@ -1054,26 +994,26 @@
         <v>27824</v>
       </c>
       <c r="O13" s="6">
-        <f>N13/$L$4</f>
+        <f t="shared" si="0"/>
         <v>2.7824E-3</v>
       </c>
       <c r="P13" s="1">
         <v>28702</v>
       </c>
       <c r="Q13" s="6">
-        <f>P13/$L$4</f>
+        <f t="shared" si="1"/>
         <v>2.8701999999999998E-3</v>
       </c>
       <c r="R13">
-        <f>(N13+P13)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>2.8262999999999999E-3</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S14" si="2">(N13-P13)/SQRT(R13*(1-R13)*(1/5000000))/10000000</f>
+        <f t="shared" ref="S13:S14" si="5">(N13-P13)/SQRT(R13*(1-R13)*(1/5000000))/10000000</f>
         <v>-3.6981539039611699</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" ref="T13:T14" si="3">P13/N13</f>
+        <f t="shared" ref="T13:T14" si="6">P13/N13</f>
         <v>1.0315554916618745</v>
       </c>
     </row>
@@ -1103,26 +1043,26 @@
         <v>16406</v>
       </c>
       <c r="O14" s="6">
-        <f>N14/$L$4</f>
+        <f t="shared" si="0"/>
         <v>1.6406000000000001E-3</v>
       </c>
       <c r="P14" s="1">
         <v>20452</v>
       </c>
       <c r="Q14" s="6">
-        <f>P14/$L$4</f>
+        <f t="shared" si="1"/>
         <v>2.0452000000000001E-3</v>
       </c>
       <c r="R14">
-        <f>(N14+P14)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>1.8429E-3</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-21.094077895898089</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2466170913080581</v>
       </c>
     </row>
@@ -1152,26 +1092,26 @@
         <v>70748</v>
       </c>
       <c r="O15" s="6">
-        <f>N15/$L$4</f>
+        <f t="shared" si="0"/>
         <v>7.0748E-3</v>
       </c>
       <c r="P15" s="1">
         <v>82421</v>
       </c>
       <c r="Q15" s="6">
-        <f>P15/$L$4</f>
+        <f t="shared" si="1"/>
         <v>8.2421000000000005E-3</v>
       </c>
       <c r="R15">
-        <f>(N15+P15)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>7.6584499999999998E-3</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S16" si="4">(N15-P15)/SQRT(R15*(1-R15)*(1/5000000))/10000000</f>
+        <f t="shared" ref="S15:S16" si="7">(N15-P15)/SQRT(R15*(1-R15)*(1/5000000))/10000000</f>
         <v>-29.941010879782556</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" ref="T15:T16" si="5">P15/N15</f>
+        <f t="shared" ref="T15:T16" si="8">P15/N15</f>
         <v>1.1649940634364222</v>
       </c>
     </row>
@@ -1201,26 +1141,26 @@
         <v>25593</v>
       </c>
       <c r="O16" s="6">
-        <f>N16/$L$4</f>
+        <f t="shared" si="0"/>
         <v>2.5593E-3</v>
       </c>
       <c r="P16" s="1">
         <v>42039</v>
       </c>
       <c r="Q16" s="6">
-        <f>P16/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.2039E-3</v>
       </c>
       <c r="R16">
-        <f>(N16+P16)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>3.3815999999999998E-3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-63.346076388888108</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6425975852772243</v>
       </c>
     </row>
@@ -1250,26 +1190,26 @@
         <v>8282</v>
       </c>
       <c r="O17" s="6">
-        <f>N17/$L$4</f>
+        <f t="shared" si="0"/>
         <v>8.2819999999999996E-4</v>
       </c>
       <c r="P17" s="1">
         <v>9131</v>
       </c>
       <c r="Q17" s="6">
-        <f>P17/$L$4</f>
+        <f t="shared" si="1"/>
         <v>9.1310000000000002E-4</v>
       </c>
       <c r="R17">
-        <f>(N17+P17)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>8.7065000000000005E-4</v>
       </c>
       <c r="S17">
-        <f t="shared" ref="S17:S18" si="6">(N17-P17)/SQRT(R17*(1-R17)*(1/5000000))/10000000</f>
+        <f t="shared" ref="S17:S18" si="9">(N17-P17)/SQRT(R17*(1-R17)*(1/5000000))/10000000</f>
         <v>-6.436652034963771</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" ref="T17:T18" si="7">P17/N17</f>
+        <f t="shared" ref="T17:T18" si="10">P17/N17</f>
         <v>1.1025114706592611</v>
       </c>
     </row>
@@ -1299,26 +1239,26 @@
         <v>6287</v>
       </c>
       <c r="O18" s="6">
-        <f>N18/$L$4</f>
+        <f t="shared" si="0"/>
         <v>6.2870000000000005E-4</v>
       </c>
       <c r="P18" s="1">
         <v>6982</v>
       </c>
       <c r="Q18" s="6">
-        <f>P18/$L$4</f>
+        <f t="shared" si="1"/>
         <v>6.9819999999999995E-4</v>
       </c>
       <c r="R18">
-        <f>(N18+P18)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>6.6345E-4</v>
       </c>
       <c r="S18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-6.0354522969708029</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1105455702242724</v>
       </c>
     </row>
@@ -1348,26 +1288,26 @@
         <v>65832</v>
       </c>
       <c r="O19" s="6">
-        <f>N19/$L$4</f>
+        <f t="shared" si="0"/>
         <v>6.5832E-3</v>
       </c>
       <c r="P19">
         <v>62970</v>
       </c>
       <c r="Q19" s="6">
-        <f>P19/$L$4</f>
+        <f t="shared" si="1"/>
         <v>6.2969999999999996E-3</v>
       </c>
       <c r="R19">
-        <f>(N19+P19)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>6.4400999999999998E-3</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S20" si="8">(N19-P19)/SQRT(R19*(1-R19)*(1/5000000))/10000000</f>
+        <f t="shared" ref="S19:S20" si="11">(N19-P19)/SQRT(R19*(1-R19)*(1/5000000))/10000000</f>
         <v>8.0003925828378382</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" ref="T19:T20" si="9">P19/N19</f>
+        <f t="shared" ref="T19:T20" si="12">P19/N19</f>
         <v>0.95652570178636531</v>
       </c>
     </row>
@@ -1397,26 +1337,26 @@
         <v>41080</v>
       </c>
       <c r="O20" s="6">
-        <f>N20/$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.1079999999999997E-3</v>
       </c>
       <c r="P20">
         <v>47678</v>
       </c>
       <c r="Q20" s="6">
-        <f>P20/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.7678E-3</v>
       </c>
       <c r="R20">
-        <f>(N20+P20)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>4.4378999999999998E-3</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-22.195982811865129</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1606134371957157</v>
       </c>
     </row>
@@ -1446,18 +1386,18 @@
         <v>254579</v>
       </c>
       <c r="O21" s="6">
-        <f>N21/$L$4</f>
+        <f t="shared" si="0"/>
         <v>2.5457899999999999E-2</v>
       </c>
       <c r="P21">
         <v>282850</v>
       </c>
       <c r="Q21" s="6">
-        <f>P21/$L$4</f>
+        <f t="shared" si="1"/>
         <v>2.8285000000000001E-2</v>
       </c>
       <c r="R21">
-        <f>(N21+P21)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>2.6871450000000002E-2</v>
       </c>
       <c r="S21">
@@ -1495,18 +1435,18 @@
         <v>93933</v>
       </c>
       <c r="O22" s="6">
-        <f>N22/$L$4</f>
+        <f t="shared" si="0"/>
         <v>9.3933000000000003E-3</v>
       </c>
       <c r="P22">
         <v>135855</v>
       </c>
       <c r="Q22" s="6">
-        <f>P22/$L$4</f>
+        <f t="shared" si="1"/>
         <v>1.35855E-2</v>
       </c>
       <c r="R22">
-        <f>(N22+P22)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>1.14894E-2</v>
       </c>
       <c r="S22">
@@ -1544,26 +1484,26 @@
         <v>363058</v>
       </c>
       <c r="O23" s="6">
-        <f>N23/$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.6305799999999999E-2</v>
       </c>
       <c r="P23" s="8">
         <v>427504</v>
       </c>
       <c r="Q23" s="6">
-        <f>P23/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.2750400000000001E-2</v>
       </c>
       <c r="R23">
-        <f>(N23+P23)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>3.9528099999999997E-2</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S24" si="10">(N23-P23)/SQRT(R23*(1-R23)*(1/5000000))/10000000</f>
+        <f t="shared" ref="S23:S24" si="13">(N23-P23)/SQRT(R23*(1-R23)*(1/5000000))/10000000</f>
         <v>-73.958086734397895</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" ref="T23:T24" si="11">P23/N23</f>
+        <f t="shared" ref="T23:T24" si="14">P23/N23</f>
         <v>1.177508827790601</v>
       </c>
     </row>
@@ -1593,26 +1533,26 @@
         <v>147255</v>
       </c>
       <c r="O24" s="6">
-        <f>N24/$L$4</f>
+        <f t="shared" si="0"/>
         <v>1.4725500000000001E-2</v>
       </c>
       <c r="P24" s="8">
         <v>180587</v>
       </c>
       <c r="Q24" s="6">
-        <f>P24/$L$4</f>
+        <f t="shared" si="1"/>
         <v>1.80587E-2</v>
       </c>
       <c r="R24">
-        <f>(N24+P24)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>1.63921E-2</v>
       </c>
       <c r="S24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-58.697293120639024</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2263556415741401</v>
       </c>
     </row>
@@ -1642,26 +1582,26 @@
         <v>1082488</v>
       </c>
       <c r="O25" s="6">
-        <f>N25/$L$4</f>
+        <f t="shared" si="0"/>
         <v>0.10824880000000001</v>
       </c>
       <c r="P25">
         <v>1297542</v>
       </c>
       <c r="Q25" s="6">
-        <f>P25/$L$4</f>
+        <f t="shared" si="1"/>
         <v>0.12975419999999999</v>
       </c>
       <c r="R25">
-        <f>(N25+P25)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.1190015</v>
       </c>
       <c r="S25">
-        <f>(N25-P25)/SQRT(R25*(1-R25)*(1/5000000))/10000000</f>
+        <f t="shared" ref="S25:S30" si="15">(N25-P25)/SQRT(R25*(1-R25)*(1/5000000))/10000000</f>
         <v>-148.51445460130842</v>
       </c>
       <c r="T25" s="5">
-        <f>P25/N25</f>
+        <f t="shared" ref="T25:T30" si="16">P25/N25</f>
         <v>1.1986664055398304</v>
       </c>
     </row>
@@ -1691,26 +1631,26 @@
         <v>241363</v>
       </c>
       <c r="O26" s="6">
-        <f>N26/$L$4</f>
+        <f t="shared" si="0"/>
         <v>2.4136299999999999E-2</v>
       </c>
       <c r="P26">
         <v>336413</v>
       </c>
       <c r="Q26" s="6">
-        <f>P26/$L$4</f>
+        <f t="shared" si="1"/>
         <v>3.3641299999999999E-2</v>
       </c>
       <c r="R26">
-        <f>(N26+P26)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>2.8888799999999999E-2</v>
       </c>
       <c r="S26">
-        <f>(N26-P26)/SQRT(R26*(1-R26)*(1/5000000))/10000000</f>
+        <f t="shared" si="15"/>
         <v>-126.89306594455773</v>
       </c>
       <c r="T26" s="5">
-        <f>P26/N26</f>
+        <f t="shared" si="16"/>
         <v>1.3938051814072578</v>
       </c>
     </row>
@@ -1740,26 +1680,26 @@
         <v>2428189</v>
       </c>
       <c r="O27" s="6">
-        <f>N27/$L$4</f>
+        <f t="shared" si="0"/>
         <v>0.2428189</v>
       </c>
       <c r="P27">
         <v>2960875</v>
       </c>
       <c r="Q27" s="6">
-        <f>P27/$L$4</f>
+        <f t="shared" si="1"/>
         <v>0.2960875</v>
       </c>
       <c r="R27">
-        <f>(N27+P27)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.2694532</v>
       </c>
       <c r="S27">
-        <f>(N27-P27)/SQRT(R27*(1-R27)*(1/5000000))/10000000</f>
+        <f t="shared" si="15"/>
         <v>-268.46680283961012</v>
       </c>
       <c r="T27" s="5">
-        <f>P27/N27</f>
+        <f t="shared" si="16"/>
         <v>1.2193758393601157</v>
       </c>
     </row>
@@ -1789,26 +1729,26 @@
         <v>374734</v>
       </c>
       <c r="O28" s="6">
-        <f>N28/$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.7473399999999997E-2</v>
       </c>
       <c r="P28">
         <v>480765</v>
       </c>
       <c r="Q28" s="6">
-        <f>P28/$L$4</f>
+        <f t="shared" si="1"/>
         <v>4.8076500000000001E-2</v>
       </c>
       <c r="R28">
-        <f>(N28+P28)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>4.2774949999999999E-2</v>
       </c>
       <c r="S28">
-        <f>(N28-P28)/SQRT(R28*(1-R28)*(1/5000000))/10000000</f>
+        <f t="shared" si="15"/>
         <v>-117.16990466941321</v>
       </c>
       <c r="T28" s="5">
-        <f>P28/N28</f>
+        <f t="shared" si="16"/>
         <v>1.2829500392278257</v>
       </c>
     </row>
@@ -1838,26 +1778,26 @@
         <v>3367999</v>
       </c>
       <c r="O29" s="6">
-        <f>N29/$L$4</f>
+        <f t="shared" si="0"/>
         <v>0.33679989999999999</v>
       </c>
       <c r="P29">
         <v>4248758</v>
       </c>
       <c r="Q29" s="6">
-        <f>P29/$L$4</f>
+        <f t="shared" si="1"/>
         <v>0.42487580000000003</v>
       </c>
       <c r="R29">
-        <f>(N29+P29)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.38083784999999998</v>
       </c>
       <c r="S29">
-        <f>(N29-P29)/SQRT(R29*(1-R29)*(1/5000000))/10000000</f>
+        <f t="shared" si="15"/>
         <v>-405.57375126706478</v>
       </c>
       <c r="T29" s="5">
-        <f>P29/N29</f>
+        <f t="shared" si="16"/>
         <v>1.2615080942719994</v>
       </c>
     </row>
@@ -1887,26 +1827,26 @@
         <v>413349</v>
       </c>
       <c r="O30" s="6">
-        <f>N30/$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.1334900000000001E-2</v>
       </c>
       <c r="P30">
         <v>563722</v>
       </c>
       <c r="Q30" s="6">
-        <f>P30/$L$4</f>
+        <f t="shared" si="1"/>
         <v>5.6372199999999997E-2</v>
       </c>
       <c r="R30">
-        <f>(N30+P30)/(2*$L$4)</f>
+        <f t="shared" si="2"/>
         <v>4.8853550000000003E-2</v>
       </c>
       <c r="S30">
-        <f>(N30-P30)/SQRT(R30*(1-R30)*(1/5000000))/10000000</f>
+        <f t="shared" si="15"/>
         <v>-155.98509681379812</v>
       </c>
       <c r="T30" s="5">
-        <f>P30/N30</f>
+        <f t="shared" si="16"/>
         <v>1.3637918562764153</v>
       </c>
     </row>
@@ -3703,11 +3643,11 @@
         <v>4226</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" ref="F157" si="12">(D157+E157)/20000000</f>
+        <f t="shared" ref="F157" si="17">(D157+E157)/20000000</f>
         <v>4.9605000000000005E-4</v>
       </c>
       <c r="G157" s="3">
-        <f t="shared" ref="G157" si="13">(D157-E157)/SQRT(F157*(1-F157)*(1/5000000))/10000000</f>
+        <f t="shared" ref="G157" si="18">(D157-E157)/SQRT(F157*(1-F157)*(1/5000000))/10000000</f>
         <v>14.752030906526253</v>
       </c>
     </row>
@@ -3784,11 +3724,11 @@
         <v>4457</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" ref="F162" si="14">(D162+E162)/20000000</f>
+        <f t="shared" ref="F162" si="19">(D162+E162)/20000000</f>
         <v>5.0244999999999999E-4</v>
       </c>
       <c r="G162" s="3">
-        <f t="shared" ref="G162" si="15">(D162-E162)/SQRT(F162*(1-F162)*(1/5000000))/10000000</f>
+        <f t="shared" ref="G162" si="20">(D162-E162)/SQRT(F162*(1-F162)*(1/5000000))/10000000</f>
         <v>11.325139792779158</v>
       </c>
     </row>
@@ -7400,11 +7340,11 @@
         <v>1297542</v>
       </c>
       <c r="F415" s="3">
-        <f t="shared" ref="F415" si="16">(D415+E415)/20000000</f>
+        <f t="shared" ref="F415" si="21">(D415+E415)/20000000</f>
         <v>0.1190015</v>
       </c>
       <c r="G415" s="3">
-        <f t="shared" ref="G415" si="17">(D415-E415)/SQRT(F415*(1-F415)*(1/5000000))/10000000</f>
+        <f t="shared" ref="G415" si="22">(D415-E415)/SQRT(F415*(1-F415)*(1/5000000))/10000000</f>
         <v>-148.51445460130842</v>
       </c>
     </row>
@@ -7439,11 +7379,11 @@
         <v>336413</v>
       </c>
       <c r="F417" s="3">
-        <f t="shared" ref="F417" si="18">(D417+E417)/20000000</f>
+        <f t="shared" ref="F417" si="23">(D417+E417)/20000000</f>
         <v>2.8888799999999999E-2</v>
       </c>
       <c r="G417" s="3">
-        <f t="shared" ref="G417" si="19">(D417-E417)/SQRT(F417*(1-F417)*(1/5000000))/10000000</f>
+        <f t="shared" ref="G417" si="24">(D417-E417)/SQRT(F417*(1-F417)*(1/5000000))/10000000</f>
         <v>-126.89306594455773</v>
       </c>
     </row>
@@ -9276,11 +9216,11 @@
         <v>4248758</v>
       </c>
       <c r="F547" s="3">
-        <f t="shared" ref="F547" si="20">(D547+E547)/20000000</f>
+        <f t="shared" ref="F547" si="25">(D547+E547)/20000000</f>
         <v>0.38083784999999998</v>
       </c>
       <c r="G547" s="3">
-        <f t="shared" ref="G547" si="21">(D547-E547)/SQRT(F547*(1-F547)*(1/5000000))/10000000</f>
+        <f t="shared" ref="G547" si="26">(D547-E547)/SQRT(F547*(1-F547)*(1/5000000))/10000000</f>
         <v>-405.57375126706478</v>
       </c>
     </row>
@@ -9315,11 +9255,11 @@
         <v>563722</v>
       </c>
       <c r="F549" s="3">
-        <f t="shared" ref="F549" si="22">(D549+E549)/20000000</f>
+        <f t="shared" ref="F549" si="27">(D549+E549)/20000000</f>
         <v>4.8853550000000003E-2</v>
       </c>
       <c r="G549" s="3">
-        <f t="shared" ref="G549" si="23">(D549-E549)/SQRT(F549*(1-F549)*(1/5000000))/10000000</f>
+        <f t="shared" ref="G549" si="28">(D549-E549)/SQRT(F549*(1-F549)*(1/5000000))/10000000</f>
         <v>-155.98509681379812</v>
       </c>
     </row>
